--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_203.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_203.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4357142857142857</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:16.341609', '0:00:23.354036')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.08, 19.46)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:24', '0:01:30.840000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:04.260000', '0:00:08.680000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(124.92, 129.88)]</t>
+          <t>[('0:00:09.900000', '0:00:34.680000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:44.820000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.425</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[('0:00:58.625147', '0:01:04.604285')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[('0:00:21.020000', '0:00:31.860000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:40.080000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.56, 25.4)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_219</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1696969696969697</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['C', 'F:min', 'F:min/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
+          <t>[['A', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[('0:00:41.384331', '0:00:46.388231')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:15.058526', '0:01:39.567188')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(66.02, 68.98)]</t>
+          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:43.740000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E', 'E/7']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(65.382154, 77.68873)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.935986, 13.148866)]</t>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(61.68, 67.26)]</t>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:37.160000', '0:02:40.380000'), ('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(105.0, 108.84)]</t>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.75</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(10.2, 17.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.851927, 16.810929)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
